--- a/rev_porcentajes.xlsx
+++ b/rev_porcentajes.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID2</t>
+          <t>CAENES_1d</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/rev_porcentajes.xlsx
+++ b/rev_porcentajes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>2021</v>
+      </c>
+      <c r="C2">
+        <v>637981.8722603534</v>
+      </c>
+      <c r="D2">
+        <v>646539</v>
+      </c>
+      <c r="E2">
+        <v>101.341</v>
+      </c>
+      <c r="F2">
+        <v>12867</v>
+      </c>
+      <c r="G2">
+        <v>2.017</v>
+      </c>
+      <c r="H2">
+        <v>8047</v>
+      </c>
+      <c r="I2">
+        <v>1.261</v>
+      </c>
+      <c r="J2">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="C3">
+        <v>687063.003494472</v>
+      </c>
+      <c r="D3">
+        <v>2209691</v>
+      </c>
+      <c r="E3">
+        <v>321.614</v>
+      </c>
+      <c r="F3">
+        <v>21130</v>
+      </c>
+      <c r="G3">
+        <v>3.075</v>
+      </c>
+      <c r="H3">
+        <v>12767</v>
+      </c>
+      <c r="I3">
+        <v>1.858</v>
+      </c>
+      <c r="J3">
+        <v>3950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rev_porcentajes.xlsx
+++ b/rev_porcentajes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CAENES_1d</t>
+          <t>ID2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -407,74 +407,6 @@
         <is>
           <t>n_sind</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>2021</v>
-      </c>
-      <c r="C2">
-        <v>637981.8722603534</v>
-      </c>
-      <c r="D2">
-        <v>646539</v>
-      </c>
-      <c r="E2">
-        <v>101.341</v>
-      </c>
-      <c r="F2">
-        <v>12867</v>
-      </c>
-      <c r="G2">
-        <v>2.017</v>
-      </c>
-      <c r="H2">
-        <v>8047</v>
-      </c>
-      <c r="I2">
-        <v>1.261</v>
-      </c>
-      <c r="J2">
-        <v>5969</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>2022</v>
-      </c>
-      <c r="C3">
-        <v>687063.003494472</v>
-      </c>
-      <c r="D3">
-        <v>2209691</v>
-      </c>
-      <c r="E3">
-        <v>321.614</v>
-      </c>
-      <c r="F3">
-        <v>21130</v>
-      </c>
-      <c r="G3">
-        <v>3.075</v>
-      </c>
-      <c r="H3">
-        <v>12767</v>
-      </c>
-      <c r="I3">
-        <v>1.858</v>
-      </c>
-      <c r="J3">
-        <v>3950</v>
       </c>
     </row>
   </sheetData>
